--- a/DMS/Templates/Pricelist_Item.xlsx
+++ b/DMS/Templates/Pricelist_Item.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tai lieu du an\Rang Dong\DMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E549DF-9E45-4793-B7AC-5812E378DC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gia ban" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>STT</t>
   </si>
@@ -33,15 +34,12 @@
   <si>
     <t>Giá bán</t>
   </si>
-  <si>
-    <t>END</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -409,21 +407,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25">
+    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -434,55 +432,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
